--- a/biology/Zoologie/Anolis_lemurinus/Anolis_lemurinus.xlsx
+++ b/biology/Zoologie/Anolis_lemurinus/Anolis_lemurinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anolis lemurinus est une espèce de sauriens de la famille des Dactyloidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anolis lemurinus est une espèce de sauriens de la famille des Dactyloidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Hidalgo, au Veracruz, au Yucatán et au Chiapas au Mexique, au Belize, au Guatemala, au Honduras, au Salvador, au Honduras, au Nicaragua, au Costa Rica, au Panama et en Colombie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Hidalgo, au Veracruz, au Yucatán et au Chiapas au Mexique, au Belize, au Guatemala, au Honduras, au Salvador, au Honduras, au Nicaragua, au Costa Rica, au Panama et en Colombie.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cope, 1861 : Notes and descriptions of anoles. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 13, p. 208-215 (texte intégral).</t>
         </is>
